--- a/Documents/Sales Platform Reports 2.xlsx
+++ b/Documents/Sales Platform Reports 2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_C6CF2EB2ED1EAB9CC6130CA777F35B92302A37F2" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Report - Total" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Non-Invoiced Orders" sheetId="11" r:id="rId11"/>
     <sheet name="Pricing Sheet" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1187,27 +1188,6 @@
     <xf numFmtId="9" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1246,6 +1226,27 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1533,14 +1534,14 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>2015</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>100000</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1588,12 +1589,12 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>41.666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1897,12 +1898,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>41.666666666666671</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2206,12 +2207,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2018</v>
       </c>
@@ -2230,22 +2231,22 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="51" customWidth="1"/>
-    <col min="5" max="6" width="15.453125" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.36328125" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="51" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="51"/>
+    <col min="1" max="1" width="14.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="51" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>127</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>129</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>142</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
         <v>131</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>146</v>
       </c>
@@ -2293,12 +2294,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>35</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
         <v>42768</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
         <v>42769</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
         <v>42770</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="53">
         <v>42771</v>
       </c>
@@ -2454,12 +2455,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>35</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>42768</v>
       </c>
@@ -2536,7 +2537,7 @@
       </c>
       <c r="M17" s="68"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -2559,7 +2560,7 @@
       <c r="L18" s="66"/>
       <c r="M18" s="69"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -2586,7 +2587,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -2615,15 +2616,15 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -2631,12 +2632,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>35</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="73">
         <v>42768</v>
       </c>
@@ -2664,24 +2665,24 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>35</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="73">
         <v>42768</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="31"/>
@@ -2733,7 +2734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="31"/>
@@ -2758,23 +2759,23 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>124</v>
       </c>
@@ -2782,58 +2783,58 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="93" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="96" t="s">
+      <c r="H4" s="114"/>
+      <c r="I4" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="108" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="85" t="s">
         <v>178</v>
       </c>
       <c r="H5" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="95"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="111"/>
+      <c r="J5" s="108"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>180</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>7715</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>153</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>101</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>187</v>
       </c>
@@ -2949,7 +2950,7 @@
       <c r="I9" s="77"/>
       <c r="J9" s="86"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
         <v>188</v>
       </c>
@@ -2978,7 +2979,7 @@
       <c r="I10" s="77"/>
       <c r="J10" s="86"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>189</v>
       </c>
@@ -3003,7 +3004,7 @@
       <c r="I11" s="77"/>
       <c r="J11" s="86"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="77">
         <v>1234</v>
       </c>
@@ -3028,7 +3029,7 @@
       <c r="I12" s="77"/>
       <c r="J12" s="86"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="77">
         <v>1212</v>
       </c>
@@ -3053,12 +3054,12 @@
       <c r="I13" s="77"/>
       <c r="J13" s="86"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>192</v>
       </c>
@@ -3072,20 +3073,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="93" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="109" t="s">
         <v>174</v>
       </c>
       <c r="F17" s="87" t="s">
@@ -3094,41 +3095,41 @@
       <c r="G17" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="H17" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="I17" s="98" t="s">
+      <c r="I17" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="J17" s="99"/>
-      <c r="K17" s="96" t="s">
+      <c r="J17" s="114"/>
+      <c r="K17" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="L17" s="95" t="s">
+      <c r="L17" s="108" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="92">
         <v>0.1</v>
       </c>
       <c r="G18" s="88"/>
-      <c r="H18" s="97"/>
+      <c r="H18" s="111"/>
       <c r="I18" s="85" t="s">
         <v>178</v>
       </c>
       <c r="J18" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="K18" s="97"/>
-      <c r="L18" s="95"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K18" s="111"/>
+      <c r="L18" s="108"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
         <v>180</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>7715</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
         <v>153</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>101</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
         <v>187</v>
       </c>
@@ -3262,7 +3263,7 @@
       <c r="K22" s="77"/>
       <c r="L22" s="86"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>188</v>
       </c>
@@ -3297,7 +3298,7 @@
       <c r="K23" s="77"/>
       <c r="L23" s="86"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>189</v>
       </c>
@@ -3326,7 +3327,7 @@
       <c r="K24" s="77"/>
       <c r="L24" s="86"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="77">
         <v>1234</v>
       </c>
@@ -3355,7 +3356,7 @@
       <c r="K25" s="77"/>
       <c r="L25" s="86"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="77">
         <v>1212</v>
       </c>
@@ -3386,16 +3387,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:J17"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -3404,6 +3395,16 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3417,14 +3418,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <f>SUM(B2:H2)</f>
         <v>1240000</v>
@@ -3479,7 +3480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>620000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -3525,7 +3526,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -3538,7 +3539,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -3551,7 +3552,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -3561,7 +3562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>20</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>620000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -3590,7 +3591,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>27</v>
@@ -3603,7 +3604,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -3616,7 +3617,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3636,18 +3637,18 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>49</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>50</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>52</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>53</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="26">
         <f>SUM(B2:B6)</f>
         <v>500000</v>
@@ -3723,12 +3724,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -3800,7 +3801,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="22">
         <v>42562</v>
@@ -3832,7 +3833,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
         <v>39</v>
@@ -3869,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -3903,7 +3904,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="22">
         <v>42562</v>
@@ -3935,7 +3936,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="24" t="s">
         <v>39</v>
@@ -3972,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>47</v>
       </c>
@@ -3983,7 +3984,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>0</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -4055,7 +4056,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="22">
         <v>42562</v>
@@ -4087,7 +4088,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="24" t="s">
         <v>39</v>
@@ -4124,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -4158,7 +4159,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="22">
         <v>42562</v>
@@ -4190,7 +4191,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="24" t="s">
         <v>39</v>
@@ -4241,195 +4242,195 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="103" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="103" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="103" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="103" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="103"/>
+    <col min="1" max="1" width="20.5703125" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="96" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="96" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="102"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="C1" s="95"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="102"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="104" t="s">
+      <c r="C2" s="95"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="102"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="105" t="s">
+      <c r="C3" s="95"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="106">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="99">
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="93" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="107">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="100">
         <v>40544</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="101" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="107">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="100">
         <v>40545</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="101" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="107">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="100">
         <v>40546</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="101" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="106">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="99">
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="100" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="93" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="107">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="100">
         <v>40544</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="101" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="107">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="100">
         <v>40545</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="101" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="107">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="100">
         <v>40546</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="101" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4444,16 +4445,16 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4462,7 +4463,7 @@
       </c>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>64</v>
       </c>
@@ -4471,7 +4472,7 @@
       </c>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>68</v>
       </c>
@@ -4480,7 +4481,7 @@
       </c>
       <c r="C3" s="31"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>23</v>
       </c>
@@ -4489,12 +4490,12 @@
       </c>
       <c r="C4" s="31"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>56</v>
       </c>
@@ -4503,7 +4504,7 @@
       </c>
       <c r="C6" s="31"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>57</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="31" t="s">
         <v>59</v>
@@ -4523,7 +4524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
@@ -4532,12 +4533,12 @@
       </c>
       <c r="C9" s="31"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>35</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>40544</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="38"/>
       <c r="C15" s="31"/>
@@ -4589,7 +4590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="38"/>
       <c r="C16" s="31"/>
@@ -4601,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="38"/>
       <c r="C17" s="31"/>
@@ -4613,7 +4614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="38"/>
       <c r="C18" s="31"/>
@@ -4621,7 +4622,7 @@
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="38">
         <v>111125</v>
@@ -4639,7 +4640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="38"/>
       <c r="C20" s="31"/>
@@ -4651,7 +4652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="38"/>
       <c r="C21" s="31"/>
@@ -4659,7 +4660,7 @@
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>67</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="38"/>
       <c r="C23" s="31"/>
@@ -4687,18 +4688,18 @@
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" s="31"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>2016</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="29"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>35</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>40544</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -4750,7 +4751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -4762,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -4774,7 +4775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -4782,7 +4783,7 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="31">
         <v>111125</v>
@@ -4800,7 +4801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -4812,7 +4813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -4820,7 +4821,7 @@
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -4862,19 +4863,19 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
-    <col min="7" max="8" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>68</v>
       </c>
@@ -4890,7 +4891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>99</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>96</v>
       </c>
@@ -4906,15 +4907,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="107" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>0</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>97</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>35</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>40544</v>
       </c>
@@ -4996,7 +4997,7 @@
       <c r="K11" s="1">
         <v>30</v>
       </c>
-      <c r="L11" s="112" t="s">
+      <c r="L11" s="105" t="s">
         <v>132</v>
       </c>
       <c r="M11" s="1"/>
@@ -5004,7 +5005,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>40544</v>
       </c>
@@ -5026,7 +5027,7 @@
       <c r="K12" s="1">
         <v>46</v>
       </c>
-      <c r="L12" s="112" t="s">
+      <c r="L12" s="105" t="s">
         <v>132</v>
       </c>
       <c r="M12" s="1"/>
@@ -5034,7 +5035,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>40544</v>
       </c>
@@ -5058,7 +5059,7 @@
       <c r="K13" s="1">
         <v>2</v>
       </c>
-      <c r="L13" s="110" t="s">
+      <c r="L13" s="103" t="s">
         <v>166</v>
       </c>
       <c r="M13" s="1"/>
@@ -5066,7 +5067,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>40544</v>
       </c>
@@ -5092,17 +5093,17 @@
       <c r="K14" s="1">
         <v>90</v>
       </c>
-      <c r="L14" s="111" t="s">
+      <c r="L14" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="M14" s="113">
+      <c r="M14" s="106">
         <v>42782</v>
       </c>
       <c r="N14" s="77" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -5114,13 +5115,13 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="110" t="s">
+      <c r="L15" s="103" t="s">
         <v>166</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="77"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>89</v>
       </c>
@@ -5146,7 +5147,7 @@
       <c r="K16" s="1">
         <v>12</v>
       </c>
-      <c r="L16" s="112" t="s">
+      <c r="L16" s="105" t="s">
         <v>132</v>
       </c>
       <c r="M16" s="1"/>
@@ -5154,7 +5155,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>89</v>
       </c>
@@ -5180,7 +5181,7 @@
       <c r="K17" s="1">
         <v>5</v>
       </c>
-      <c r="L17" s="112" t="s">
+      <c r="L17" s="105" t="s">
         <v>132</v>
       </c>
       <c r="M17" s="1"/>
@@ -5188,7 +5189,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>173</v>
       </c>
@@ -5204,7 +5205,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5218,16 +5219,16 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>79</v>
       </c>
@@ -5241,7 +5242,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
@@ -5251,7 +5252,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>68</v>
       </c>
@@ -5261,7 +5262,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>23</v>
       </c>
@@ -5271,13 +5272,13 @@
       <c r="C4" s="31"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>2017</v>
       </c>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>86</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -5315,7 +5316,7 @@
       </c>
       <c r="F10" s="39"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -5331,7 +5332,7 @@
       </c>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -5347,7 +5348,7 @@
       </c>
       <c r="F12" s="39"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
@@ -5363,7 +5364,7 @@
       </c>
       <c r="F13" s="39"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>87</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>87</v>
       </c>
@@ -5400,7 +5401,7 @@
       </c>
       <c r="F15" s="39"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>87</v>
       </c>
@@ -5416,7 +5417,7 @@
       </c>
       <c r="F16" s="39"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
@@ -5432,7 +5433,7 @@
       </c>
       <c r="F17" s="39"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
@@ -5448,7 +5449,7 @@
       </c>
       <c r="F18" s="39"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
@@ -5480,17 +5481,17 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>106</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>107</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>23</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>0</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>35</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>40</v>
@@ -5568,7 +5569,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="31" t="s">
@@ -5584,7 +5585,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="31" t="s">
@@ -5600,7 +5601,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="31" t="s">
@@ -5616,7 +5617,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="31" t="s">
@@ -5633,7 +5634,7 @@
         <v>20885</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>123</v>
@@ -5651,7 +5652,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="31" t="s">
@@ -5667,7 +5668,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="31" t="s">
@@ -5683,7 +5684,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>122</v>
@@ -5701,7 +5702,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="31" t="s">

--- a/Documents/Sales Platform Reports 2.xlsx
+++ b/Documents/Sales Platform Reports 2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_C6CF2EB2ED1EAB9CC6130CA777F35B92302A37F2" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C6CF2EB2ED1EAB9CC6130CA777F35B92302A37F2" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{36434E7C-87FD-4FF7-A6AB-F83772EA6623}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Report - Total" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Order Status" sheetId="10" r:id="rId10"/>
     <sheet name="Non-Invoiced Orders" sheetId="11" r:id="rId11"/>
     <sheet name="Pricing Sheet" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179017"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -1227,20 +1228,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2789,50 +2790,50 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="111" t="s">
         <v>186</v>
       </c>
       <c r="G4" s="113" t="s">
         <v>175</v>
       </c>
       <c r="H4" s="114"/>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="110" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="85" t="s">
         <v>178</v>
       </c>
       <c r="H5" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="111"/>
-      <c r="J5" s="108"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
@@ -3074,19 +3075,19 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="108" t="s">
         <v>174</v>
       </c>
       <c r="F17" s="87" t="s">
@@ -3095,39 +3096,39 @@
       <c r="G17" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="111" t="s">
         <v>186</v>
       </c>
       <c r="I17" s="113" t="s">
         <v>175</v>
       </c>
       <c r="J17" s="114"/>
-      <c r="K17" s="110" t="s">
+      <c r="K17" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="L17" s="108" t="s">
+      <c r="L17" s="110" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
       <c r="F18" s="92">
         <v>0.1</v>
       </c>
       <c r="G18" s="88"/>
-      <c r="H18" s="111"/>
+      <c r="H18" s="112"/>
       <c r="I18" s="85" t="s">
         <v>178</v>
       </c>
       <c r="J18" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="K18" s="111"/>
-      <c r="L18" s="108"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="110"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
@@ -3387,6 +3388,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -3395,17 +3406,19 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE1CC7A-6980-4715-A6A4-FD0CEA8C6AC3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4859,7 +4872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7040DD65-5F44-4B7B-88BE-2214508A6520}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -5477,7 +5490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764D3F0D-67EF-4C13-B30D-9E31834F2242}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Sales Platform Reports 2.xlsx
+++ b/Documents/Sales Platform Reports 2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C6CF2EB2ED1EAB9CC6130CA777F35B92302A37F2" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{36434E7C-87FD-4FF7-A6AB-F83772EA6623}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="5_{939A4D8B-A51A-4C4D-BFBA-FD2998F33406}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Documents/Sales Platform Reports 2.xlsx
+++ b/Documents/Sales Platform Reports 2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="5_{939A4D8B-A51A-4C4D-BFBA-FD2998F33406}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="5_{33560E52-8E85-44B2-901D-26EB709F839E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,11 +22,16 @@
     <sheet name="Pricing Sheet" sheetId="14" r:id="rId12"/>
     <sheet name="Sheet2" sheetId="16" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1228,20 +1233,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2790,50 +2795,50 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="110" t="s">
         <v>186</v>
       </c>
       <c r="G4" s="113" t="s">
         <v>175</v>
       </c>
       <c r="H4" s="114"/>
-      <c r="I4" s="111" t="s">
+      <c r="I4" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="108" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="85" t="s">
         <v>178</v>
       </c>
       <c r="H5" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="110"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
@@ -3075,19 +3080,19 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="109" t="s">
         <v>174</v>
       </c>
       <c r="F17" s="87" t="s">
@@ -3096,39 +3101,39 @@
       <c r="G17" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="111" t="s">
+      <c r="H17" s="110" t="s">
         <v>186</v>
       </c>
       <c r="I17" s="113" t="s">
         <v>175</v>
       </c>
       <c r="J17" s="114"/>
-      <c r="K17" s="111" t="s">
+      <c r="K17" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="L17" s="110" t="s">
+      <c r="L17" s="108" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="92">
         <v>0.1</v>
       </c>
       <c r="G18" s="88"/>
-      <c r="H18" s="112"/>
+      <c r="H18" s="111"/>
       <c r="I18" s="85" t="s">
         <v>178</v>
       </c>
       <c r="J18" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="K18" s="112"/>
-      <c r="L18" s="110"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="108"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
@@ -3388,16 +3393,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:J17"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -3406,6 +3401,16 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
